--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl10-Ccr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxcl10-Ccr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,51 +537,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.76479233333333</v>
+        <v>15.428109</v>
       </c>
       <c r="H2">
-        <v>56.294377</v>
+        <v>46.284327</v>
       </c>
       <c r="I2">
-        <v>0.09818846546758657</v>
+        <v>0.105145687357564</v>
       </c>
       <c r="J2">
-        <v>0.09818846546758656</v>
+        <v>0.105145687357564</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.438062</v>
+        <v>0.1790523333333333</v>
       </c>
       <c r="N2">
-        <v>1.314186</v>
+        <v>0.537157</v>
       </c>
       <c r="O2">
-        <v>0.6074000808827777</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.6074000808827777</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>8.220142459124666</v>
+        <v>2.762438915371</v>
       </c>
       <c r="R2">
-        <v>73.981282132122</v>
+        <v>24.861950238339</v>
       </c>
       <c r="S2">
-        <v>0.05963968186676791</v>
+        <v>0.105145687357564</v>
       </c>
       <c r="T2">
-        <v>0.0596396818667679</v>
+        <v>0.105145687357564</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.76479233333333</v>
+        <v>72.11798333333333</v>
       </c>
       <c r="H3">
-        <v>56.294377</v>
+        <v>216.35395</v>
       </c>
       <c r="I3">
-        <v>0.09818846546758657</v>
+        <v>0.4914986618531588</v>
       </c>
       <c r="J3">
-        <v>0.09818846546758656</v>
+        <v>0.4914986618531588</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.2831463333333333</v>
+        <v>0.1790523333333333</v>
       </c>
       <c r="N3">
-        <v>0.8494390000000001</v>
+        <v>0.537157</v>
       </c>
       <c r="O3">
-        <v>0.3925999191172223</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.3925999191172223</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>5.313182144944777</v>
+        <v>12.91289319112778</v>
       </c>
       <c r="R3">
-        <v>47.818639304503</v>
+        <v>116.21603872015</v>
       </c>
       <c r="S3">
-        <v>0.03854878360081865</v>
+        <v>0.4914986618531588</v>
       </c>
       <c r="T3">
-        <v>0.03854878360081865</v>
+        <v>0.4914986618531588</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>72.11798333333333</v>
+        <v>17.753286</v>
       </c>
       <c r="H4">
-        <v>216.35395</v>
+        <v>53.25985799999999</v>
       </c>
       <c r="I4">
-        <v>0.3773638413007209</v>
+        <v>0.120992239510715</v>
       </c>
       <c r="J4">
-        <v>0.3773638413007209</v>
+        <v>0.120992239510715</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.438062</v>
+        <v>0.1790523333333333</v>
       </c>
       <c r="N4">
-        <v>1.314186</v>
+        <v>0.537157</v>
       </c>
       <c r="O4">
-        <v>0.6074000808827777</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.6074000808827777</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>31.59214801496666</v>
+        <v>3.178767282634</v>
       </c>
       <c r="R4">
-        <v>284.3293321347</v>
+        <v>28.608905543706</v>
       </c>
       <c r="S4">
-        <v>0.2292108277282936</v>
+        <v>0.120992239510715</v>
       </c>
       <c r="T4">
-        <v>0.2292108277282936</v>
+        <v>0.120992239510715</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,294 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>72.11798333333333</v>
+        <v>41.43140433333334</v>
       </c>
       <c r="H5">
-        <v>216.35395</v>
+        <v>124.294213</v>
       </c>
       <c r="I5">
-        <v>0.3773638413007209</v>
+        <v>0.2823634112785623</v>
       </c>
       <c r="J5">
-        <v>0.3773638413007209</v>
+        <v>0.2823634112785622</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2831463333333333</v>
+        <v>0.1790523333333333</v>
       </c>
       <c r="N5">
-        <v>0.8494390000000001</v>
+        <v>0.537157</v>
       </c>
       <c r="O5">
-        <v>0.3925999191172223</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.3925999191172223</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>20.41994254822778</v>
+        <v>7.418389619160113</v>
       </c>
       <c r="R5">
-        <v>183.77948293405</v>
+        <v>66.76550657244101</v>
       </c>
       <c r="S5">
-        <v>0.1481530135724273</v>
+        <v>0.2823634112785623</v>
       </c>
       <c r="T5">
-        <v>0.1481530135724273</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>16.90787</v>
-      </c>
-      <c r="H6">
-        <v>50.72361</v>
-      </c>
-      <c r="I6">
-        <v>0.08847195216098278</v>
-      </c>
-      <c r="J6">
-        <v>0.08847195216098278</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.438062</v>
-      </c>
-      <c r="N6">
-        <v>1.314186</v>
-      </c>
-      <c r="O6">
-        <v>0.6074000808827777</v>
-      </c>
-      <c r="P6">
-        <v>0.6074000808827777</v>
-      </c>
-      <c r="Q6">
-        <v>7.40669534794</v>
-      </c>
-      <c r="R6">
-        <v>66.66025813146001</v>
-      </c>
-      <c r="S6">
-        <v>0.05373787089843818</v>
-      </c>
-      <c r="T6">
-        <v>0.05373787089843818</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>16.90787</v>
-      </c>
-      <c r="H7">
-        <v>50.72361</v>
-      </c>
-      <c r="I7">
-        <v>0.08847195216098278</v>
-      </c>
-      <c r="J7">
-        <v>0.08847195216098278</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.2831463333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.8494390000000001</v>
-      </c>
-      <c r="O7">
-        <v>0.3925999191172223</v>
-      </c>
-      <c r="P7">
-        <v>0.3925999191172223</v>
-      </c>
-      <c r="Q7">
-        <v>4.787401394976667</v>
-      </c>
-      <c r="R7">
-        <v>43.08661255479</v>
-      </c>
-      <c r="S7">
-        <v>0.0347340812625446</v>
-      </c>
-      <c r="T7">
-        <v>0.0347340812625446</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>83.31930033333333</v>
-      </c>
-      <c r="H8">
-        <v>249.957901</v>
-      </c>
-      <c r="I8">
-        <v>0.4359757410707099</v>
-      </c>
-      <c r="J8">
-        <v>0.4359757410707098</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.438062</v>
-      </c>
-      <c r="N8">
-        <v>1.314186</v>
-      </c>
-      <c r="O8">
-        <v>0.6074000808827777</v>
-      </c>
-      <c r="P8">
-        <v>0.6074000808827777</v>
-      </c>
-      <c r="Q8">
-        <v>36.49901934262066</v>
-      </c>
-      <c r="R8">
-        <v>328.491174083586</v>
-      </c>
-      <c r="S8">
-        <v>0.2648117003892781</v>
-      </c>
-      <c r="T8">
-        <v>0.2648117003892781</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>83.31930033333333</v>
-      </c>
-      <c r="H9">
-        <v>249.957901</v>
-      </c>
-      <c r="I9">
-        <v>0.4359757410707099</v>
-      </c>
-      <c r="J9">
-        <v>0.4359757410707098</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.2831463333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.8494390000000001</v>
-      </c>
-      <c r="O9">
-        <v>0.3925999191172223</v>
-      </c>
-      <c r="P9">
-        <v>0.3925999191172223</v>
-      </c>
-      <c r="Q9">
-        <v>23.59155438528211</v>
-      </c>
-      <c r="R9">
-        <v>212.323989467539</v>
-      </c>
-      <c r="S9">
-        <v>0.1711640406814317</v>
-      </c>
-      <c r="T9">
-        <v>0.1711640406814317</v>
+        <v>0.2823634112785622</v>
       </c>
     </row>
   </sheetData>
